--- a/packages/windmill/external-bin/janitor/extra_files-2025-02-19.xlsx
+++ b/packages/windmill/external-bin/janitor/extra_files-2025-02-19.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="681">
   <si>
     <t>name</t>
   </si>
@@ -366,25 +366,16 @@
     <t>HONGKONGPCG</t>
   </si>
   <si>
-    <t>trustee4|trustee5|trustee6</t>
-  </si>
-  <si>
     <t>MACAU PCG - General Election</t>
   </si>
   <si>
     <t>MACAUPCG</t>
   </si>
   <si>
-    <t>trustee7|trustee8|trustee9</t>
-  </si>
-  <si>
     <t>BRUNEI PE - General Election</t>
   </si>
   <si>
     <t>BRUNEIPE</t>
-  </si>
-  <si>
-    <t>trustee10|trustee11|trustee12</t>
   </si>
   <si>
     <t>CANBERRA PE - General Election</t>
@@ -12513,7 +12504,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -12521,7 +12512,7 @@
         <v>9.0030002E7</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>73</v>
@@ -12530,10 +12521,10 @@
         <v>73</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -12541,7 +12532,7 @@
         <v>9.0040001E7</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>73</v>
@@ -12550,10 +12541,10 @@
         <v>73</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -12561,7 +12552,7 @@
         <v>9.0050001E7</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>73</v>
@@ -12570,7 +12561,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>75</v>
@@ -12581,7 +12572,7 @@
         <v>9.0050004E7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>73</v>
@@ -12590,10 +12581,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -12601,7 +12592,7 @@
         <v>9.0050005E7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>73</v>
@@ -12610,10 +12601,10 @@
         <v>73</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
@@ -12621,7 +12612,7 @@
         <v>9.0060001E7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>73</v>
@@ -12630,10 +12621,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
@@ -12641,7 +12632,7 @@
         <v>9.0080001E7</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>73</v>
@@ -12650,7 +12641,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>75</v>
@@ -12661,7 +12652,7 @@
         <v>9.0090001E7</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>73</v>
@@ -12670,10 +12661,10 @@
         <v>73</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
@@ -12681,7 +12672,7 @@
         <v>9.0100001E7</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>73</v>
@@ -12690,10 +12681,10 @@
         <v>73</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="1">
@@ -12701,7 +12692,7 @@
         <v>9.0100002E7</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>73</v>
@@ -12710,10 +12701,10 @@
         <v>73</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -12721,7 +12712,7 @@
         <v>9.0110001E7</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>73</v>
@@ -12730,7 +12721,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>75</v>
@@ -12741,7 +12732,7 @@
         <v>9.0120001E7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>73</v>
@@ -12750,10 +12741,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -12761,7 +12752,7 @@
         <v>9.0120002E7</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>73</v>
@@ -12770,10 +12761,10 @@
         <v>73</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -12781,7 +12772,7 @@
         <v>9.0120003E7</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>73</v>
@@ -12790,10 +12781,10 @@
         <v>73</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -12801,7 +12792,7 @@
         <v>9.0130001E7</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>73</v>
@@ -12810,7 +12801,7 @@
         <v>73</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>75</v>
@@ -12821,7 +12812,7 @@
         <v>9.0140001E7</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>73</v>
@@ -12830,10 +12821,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -12841,7 +12832,7 @@
         <v>9.0160001E7</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>73</v>
@@ -12850,10 +12841,10 @@
         <v>73</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -12861,7 +12852,7 @@
         <v>9.0170001E7</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>73</v>
@@ -12870,10 +12861,10 @@
         <v>73</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -12881,7 +12872,7 @@
         <v>9.0180001E7</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>73</v>
@@ -12890,7 +12881,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>75</v>
@@ -12901,7 +12892,7 @@
         <v>9.0180002E7</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>73</v>
@@ -12910,10 +12901,10 @@
         <v>73</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -12921,7 +12912,7 @@
         <v>9.0180003E7</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>73</v>
@@ -12930,10 +12921,10 @@
         <v>73</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -12941,7 +12932,7 @@
         <v>9.0190001E7</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>73</v>
@@ -12950,10 +12941,10 @@
         <v>73</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -12961,7 +12952,7 @@
         <v>9.0200001E7</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>73</v>
@@ -12970,7 +12961,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>75</v>
@@ -12981,7 +12972,7 @@
         <v>9.1010001E7</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>73</v>
@@ -12990,10 +12981,10 @@
         <v>73</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -13001,7 +12992,7 @@
         <v>9.1020001E7</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>73</v>
@@ -13010,10 +13001,10 @@
         <v>73</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -13021,7 +13012,7 @@
         <v>9.1030001E7</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>73</v>
@@ -13030,10 +13021,10 @@
         <v>73</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -13041,7 +13032,7 @@
         <v>9.1040001E7</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>73</v>
@@ -13050,7 +13041,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>75</v>
@@ -13061,7 +13052,7 @@
         <v>9.1040003E7</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>73</v>
@@ -13070,10 +13061,10 @@
         <v>73</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -13081,7 +13072,7 @@
         <v>9.1040004E7</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>73</v>
@@ -13090,10 +13081,10 @@
         <v>73</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -13101,7 +13092,7 @@
         <v>9.1040005E7</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>73</v>
@@ -13110,10 +13101,10 @@
         <v>73</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -13121,7 +13112,7 @@
         <v>9.1050001E7</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>73</v>
@@ -13130,7 +13121,7 @@
         <v>73</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>75</v>
@@ -13141,7 +13132,7 @@
         <v>9.1060001E7</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>73</v>
@@ -13150,10 +13141,10 @@
         <v>73</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -13161,7 +13152,7 @@
         <v>9.1060019E7</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>73</v>
@@ -13170,10 +13161,10 @@
         <v>73</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -13181,7 +13172,7 @@
         <v>9.1060024E7</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>73</v>
@@ -13190,10 +13181,10 @@
         <v>73</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -13201,7 +13192,7 @@
         <v>9.1060025E7</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>73</v>
@@ -13210,7 +13201,7 @@
         <v>73</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>75</v>
@@ -13221,7 +13212,7 @@
         <v>9.1060027E7</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>73</v>
@@ -13230,10 +13221,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -13241,7 +13232,7 @@
         <v>9.1060028E7</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>73</v>
@@ -13250,10 +13241,10 @@
         <v>73</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -13261,7 +13252,7 @@
         <v>9.1060029E7</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>73</v>
@@ -13270,10 +13261,10 @@
         <v>73</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -13281,7 +13272,7 @@
         <v>9.106003E7</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>73</v>
@@ -13290,7 +13281,7 @@
         <v>73</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>75</v>
@@ -13301,7 +13292,7 @@
         <v>9.2010001E7</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>73</v>
@@ -13310,10 +13301,10 @@
         <v>73</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -13321,7 +13312,7 @@
         <v>9.2010002E7</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>73</v>
@@ -13330,10 +13321,10 @@
         <v>73</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -13341,7 +13332,7 @@
         <v>9.2030001E7</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>73</v>
@@ -13350,10 +13341,10 @@
         <v>73</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -13361,7 +13352,7 @@
         <v>9.2050001E7</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>73</v>
@@ -13370,7 +13361,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>75</v>
@@ -13381,7 +13372,7 @@
         <v>9.2070001E7</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>73</v>
@@ -13390,10 +13381,10 @@
         <v>73</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -13401,7 +13392,7 @@
         <v>9.2080001E7</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>73</v>
@@ -13410,10 +13401,10 @@
         <v>73</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -13421,7 +13412,7 @@
         <v>9.2090001E7</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>73</v>
@@ -13430,10 +13421,10 @@
         <v>73</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -13441,7 +13432,7 @@
         <v>9.2100001E7</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>73</v>
@@ -13450,7 +13441,7 @@
         <v>73</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>75</v>
@@ -13461,7 +13452,7 @@
         <v>9.2110001E7</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>73</v>
@@ -13470,10 +13461,10 @@
         <v>73</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -13481,7 +13472,7 @@
         <v>9.2120001E7</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>73</v>
@@ -13490,10 +13481,10 @@
         <v>73</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -13501,7 +13492,7 @@
         <v>9.2130001E7</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>73</v>
@@ -13510,10 +13501,10 @@
         <v>73</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -13521,7 +13512,7 @@
         <v>9.2140001E7</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>73</v>
@@ -13530,7 +13521,7 @@
         <v>73</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>75</v>
@@ -13541,7 +13532,7 @@
         <v>9.2140003E7</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>73</v>
@@ -13550,10 +13541,10 @@
         <v>73</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -13561,7 +13552,7 @@
         <v>9.2160001E7</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>73</v>
@@ -13570,10 +13561,10 @@
         <v>73</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -13581,7 +13572,7 @@
         <v>9.3020001E7</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>73</v>
@@ -13590,10 +13581,10 @@
         <v>73</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -13601,7 +13592,7 @@
         <v>9.3030001E7</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>73</v>
@@ -13610,7 +13601,7 @@
         <v>73</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>75</v>
@@ -13621,7 +13612,7 @@
         <v>9.3030002E7</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>73</v>
@@ -13630,10 +13621,10 @@
         <v>73</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -13641,7 +13632,7 @@
         <v>9.3040001E7</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>73</v>
@@ -13650,10 +13641,10 @@
         <v>73</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -13661,7 +13652,7 @@
         <v>9.3040003E7</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>73</v>
@@ -13670,10 +13661,10 @@
         <v>73</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -13681,7 +13672,7 @@
         <v>9.3050001E7</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>73</v>
@@ -13690,7 +13681,7 @@
         <v>73</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>75</v>
@@ -13701,7 +13692,7 @@
         <v>9.3060001E7</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>73</v>
@@ -13710,10 +13701,10 @@
         <v>73</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -13721,7 +13712,7 @@
         <v>9.3070001E7</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>73</v>
@@ -13730,10 +13721,10 @@
         <v>73</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -13741,7 +13732,7 @@
         <v>9.3080001E7</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>73</v>
@@ -13750,10 +13741,10 @@
         <v>73</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -13761,7 +13752,7 @@
         <v>9.3090001E7</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>73</v>
@@ -13770,7 +13761,7 @@
         <v>73</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>75</v>
@@ -13781,7 +13772,7 @@
         <v>9.3100001E7</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>73</v>
@@ -13790,10 +13781,10 @@
         <v>73</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -13801,7 +13792,7 @@
         <v>9.3100003E7</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>73</v>
@@ -13810,10 +13801,10 @@
         <v>73</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -13821,7 +13812,7 @@
         <v>9.3120001E7</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>73</v>
@@ -13830,10 +13821,10 @@
         <v>73</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -13841,7 +13832,7 @@
         <v>9.3130001E7</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>73</v>
@@ -13850,7 +13841,7 @@
         <v>73</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>75</v>
@@ -13861,7 +13852,7 @@
         <v>9.3140001E7</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>73</v>
@@ -13870,10 +13861,10 @@
         <v>73</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -13881,7 +13872,7 @@
         <v>9.3150001E7</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>73</v>
@@ -13890,10 +13881,10 @@
         <v>73</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -13901,7 +13892,7 @@
         <v>9.3150005E7</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>73</v>
@@ -13910,10 +13901,10 @@
         <v>73</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -13921,7 +13912,7 @@
         <v>9.3160001E7</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>73</v>
@@ -13930,7 +13921,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>75</v>
@@ -13941,7 +13932,7 @@
         <v>9.3170001E7</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>73</v>
@@ -13950,10 +13941,10 @@
         <v>73</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -13961,7 +13952,7 @@
         <v>9.3180001E7</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>73</v>
@@ -13970,10 +13961,10 @@
         <v>73</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -13981,7 +13972,7 @@
         <v>9.3190001E7</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>73</v>
@@ -13990,10 +13981,10 @@
         <v>73</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -14001,7 +13992,7 @@
         <v>9.3200001E7</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>73</v>
@@ -14010,7 +14001,7 @@
         <v>73</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>75</v>
@@ -16372,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -16400,7 +16391,7 @@
         <v>9.0010001E7</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -16429,7 +16420,7 @@
         <v>9.0030001E7</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -16458,7 +16449,7 @@
         <v>9.0030002E7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -16487,7 +16478,7 @@
         <v>9.0040001E7</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -16516,7 +16507,7 @@
         <v>9.0050001E7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -16545,7 +16536,7 @@
         <v>9.0050002E7</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -16574,7 +16565,7 @@
         <v>9.0050003E7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -16603,7 +16594,7 @@
         <v>9.0050004E7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -16632,7 +16623,7 @@
         <v>9.0050005E7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -16661,7 +16652,7 @@
         <v>9.0050006E7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
@@ -16669,7 +16660,7 @@
         <v>9.0060001E7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="1">
@@ -16677,7 +16668,7 @@
         <v>9.0060002E7</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="1">
@@ -16685,7 +16676,7 @@
         <v>9.0060003E7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="1">
@@ -16693,7 +16684,7 @@
         <v>9.0080001E7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="1">
@@ -16701,7 +16692,7 @@
         <v>9.0090001E7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="1">
@@ -16709,7 +16700,7 @@
         <v>9.0090002E7</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
@@ -16717,7 +16708,7 @@
         <v>9.0090003E7</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="1">
@@ -16725,7 +16716,7 @@
         <v>9.0100001E7</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="1">
@@ -16733,7 +16724,7 @@
         <v>9.0100002E7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -16741,7 +16732,7 @@
         <v>9.0110001E7</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -16749,7 +16740,7 @@
         <v>9.0120001E7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -16757,7 +16748,7 @@
         <v>9.0120002E7</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -16765,7 +16756,7 @@
         <v>9.0120003E7</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -16773,7 +16764,7 @@
         <v>9.0130001E7</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -16781,7 +16772,7 @@
         <v>9.0130002E7</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -16789,7 +16780,7 @@
         <v>9.0140001E7</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -16797,7 +16788,7 @@
         <v>9.0160001E7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -16805,7 +16796,7 @@
         <v>9.0160002E7</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -16813,7 +16804,7 @@
         <v>9.0170001E7</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -16821,7 +16812,7 @@
         <v>9.0180001E7</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -16829,7 +16820,7 @@
         <v>9.0180002E7</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -16837,7 +16828,7 @@
         <v>9.0180003E7</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -16845,7 +16836,7 @@
         <v>9.0190001E7</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -16853,7 +16844,7 @@
         <v>9.0200001E7</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -16861,7 +16852,7 @@
         <v>9.0200002E7</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -16869,7 +16860,7 @@
         <v>9.0200003E7</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -16877,7 +16868,7 @@
         <v>9.0200004E7</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -16885,7 +16876,7 @@
         <v>9.0200005E7</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -16893,7 +16884,7 @@
         <v>9.0200006E7</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -16901,7 +16892,7 @@
         <v>9.1010001E7</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -16909,7 +16900,7 @@
         <v>9.1010002E7</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -16917,7 +16908,7 @@
         <v>9.1010003E7</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -16925,7 +16916,7 @@
         <v>9.1010004E7</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -16933,7 +16924,7 @@
         <v>9.1010005E7</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -16941,7 +16932,7 @@
         <v>9.1020001E7</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -16949,7 +16940,7 @@
         <v>9.1020002E7</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -16957,7 +16948,7 @@
         <v>9.1020003E7</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -16965,7 +16956,7 @@
         <v>9.1020004E7</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -16973,7 +16964,7 @@
         <v>9.1030001E7</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -16981,7 +16972,7 @@
         <v>9.1030002E7</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -16989,7 +16980,7 @@
         <v>9.1030003E7</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -16997,7 +16988,7 @@
         <v>9.1030004E7</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -17005,7 +16996,7 @@
         <v>9.1030005E7</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -17013,7 +17004,7 @@
         <v>9.1030006E7</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -17021,7 +17012,7 @@
         <v>9.1030007E7</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -17029,7 +17020,7 @@
         <v>9.1030008E7</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -17037,7 +17028,7 @@
         <v>9.1030009E7</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -17045,7 +17036,7 @@
         <v>9.1040001E7</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -17053,7 +17044,7 @@
         <v>9.1040002E7</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -17061,7 +17052,7 @@
         <v>9.1040003E7</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -17069,7 +17060,7 @@
         <v>9.1040004E7</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -17077,7 +17068,7 @@
         <v>9.1040005E7</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -17085,7 +17076,7 @@
         <v>9.1050001E7</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -17093,7 +17084,7 @@
         <v>9.1050002E7</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -17101,7 +17092,7 @@
         <v>9.1050003E7</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -17109,7 +17100,7 @@
         <v>9.1050004E7</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -17117,7 +17108,7 @@
         <v>9.1060001E7</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -17125,7 +17116,7 @@
         <v>9.1060002E7</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -17133,7 +17124,7 @@
         <v>9.1060003E7</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -17141,7 +17132,7 @@
         <v>9.1060004E7</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -17149,7 +17140,7 @@
         <v>9.1060005E7</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -17157,7 +17148,7 @@
         <v>9.1060006E7</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -17165,7 +17156,7 @@
         <v>9.1060007E7</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -17173,7 +17164,7 @@
         <v>9.1060008E7</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -17181,7 +17172,7 @@
         <v>9.1060009E7</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -17189,7 +17180,7 @@
         <v>9.106001E7</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -17197,7 +17188,7 @@
         <v>9.1060011E7</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -17205,7 +17196,7 @@
         <v>9.1060012E7</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -17213,7 +17204,7 @@
         <v>9.1060013E7</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -17221,7 +17212,7 @@
         <v>9.1060014E7</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -17229,7 +17220,7 @@
         <v>9.1060015E7</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -17237,7 +17228,7 @@
         <v>9.1060016E7</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -17245,7 +17236,7 @@
         <v>9.1060017E7</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -17253,7 +17244,7 @@
         <v>9.1060018E7</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -17261,7 +17252,7 @@
         <v>9.1060019E7</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C86" s="29">
         <v>9106019.0</v>
@@ -17272,7 +17263,7 @@
         <v>9.106002E7</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C87" s="29">
         <v>9106019.0</v>
@@ -17283,7 +17274,7 @@
         <v>9.1060021E7</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C88" s="29">
         <v>9106019.0</v>
@@ -17294,7 +17285,7 @@
         <v>9.1060022E7</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C89" s="29">
         <v>9106019.0</v>
@@ -17305,7 +17296,7 @@
         <v>9.1060023E7</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C90" s="29">
         <v>9106019.0</v>
@@ -17316,7 +17307,7 @@
         <v>9.1060024E7</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -17324,7 +17315,7 @@
         <v>9.1060025E7</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -17332,7 +17323,7 @@
         <v>9.1060026E7</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -17340,7 +17331,7 @@
         <v>9.1060027E7</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -17348,7 +17339,7 @@
         <v>9.1060028E7</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -17356,7 +17347,7 @@
         <v>9.1060029E7</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -17364,7 +17355,7 @@
         <v>9.106003E7</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -17372,7 +17363,7 @@
         <v>9.2010001E7</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -17380,7 +17371,7 @@
         <v>9.2010002E7</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -17388,7 +17379,7 @@
         <v>9.2030001E7</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -17396,7 +17387,7 @@
         <v>9.2050001E7</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -17404,7 +17395,7 @@
         <v>9.2050002E7</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
@@ -17412,7 +17403,7 @@
         <v>9.2050003E7</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -17420,7 +17411,7 @@
         <v>9.2050004E7</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -17428,7 +17419,7 @@
         <v>9.2070001E7</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -17436,7 +17427,7 @@
         <v>9.2080001E7</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
@@ -17444,7 +17435,7 @@
         <v>9.2090001E7</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -17452,7 +17443,7 @@
         <v>9.2100001E7</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -17460,7 +17451,7 @@
         <v>9.2110001E7</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -17468,7 +17459,7 @@
         <v>9.2110002E7</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -17476,7 +17467,7 @@
         <v>9.2110003E7</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -17484,7 +17475,7 @@
         <v>9.2110004E7</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -17492,7 +17483,7 @@
         <v>9.2110005E7</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -17500,7 +17491,7 @@
         <v>9.2110006E7</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -17508,7 +17499,7 @@
         <v>9.2110007E7</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -17516,7 +17507,7 @@
         <v>9.2110008E7</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -17524,7 +17515,7 @@
         <v>9.2110009E7</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -17532,7 +17523,7 @@
         <v>9.211001E7</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -17540,7 +17531,7 @@
         <v>9.2120001E7</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -17548,7 +17539,7 @@
         <v>9.2120002E7</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
@@ -17556,7 +17547,7 @@
         <v>9.2120003E7</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -17564,7 +17555,7 @@
         <v>9.2120004E7</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -17572,7 +17563,7 @@
         <v>9.2120005E7</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -17580,7 +17571,7 @@
         <v>9.2120006E7</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
@@ -17588,7 +17579,7 @@
         <v>9.2120007E7</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
@@ -17596,7 +17587,7 @@
         <v>9.2120008E7</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -17604,7 +17595,7 @@
         <v>9.2120009E7</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -17612,7 +17603,7 @@
         <v>9.212001E7</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
@@ -17620,7 +17611,7 @@
         <v>9.2130001E7</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -17628,7 +17619,7 @@
         <v>9.2130002E7</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
@@ -17636,7 +17627,7 @@
         <v>9.2130003E7</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -17644,7 +17635,7 @@
         <v>9.2130004E7</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
@@ -17652,7 +17643,7 @@
         <v>9.2140001E7</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
@@ -17660,7 +17651,7 @@
         <v>9.2140002E7</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
@@ -17668,7 +17659,7 @@
         <v>9.2140003E7</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -17676,7 +17667,7 @@
         <v>9.2160001E7</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
@@ -17684,7 +17675,7 @@
         <v>9.3020001E7</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -17692,7 +17683,7 @@
         <v>9.3020002E7</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
@@ -17700,7 +17691,7 @@
         <v>9.3020003E7</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -17708,7 +17699,7 @@
         <v>9.3030001E7</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -17716,7 +17707,7 @@
         <v>9.3030002E7</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -17724,7 +17715,7 @@
         <v>9.3040001E7</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
@@ -17732,7 +17723,7 @@
         <v>9.3040002E7</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -17740,7 +17731,7 @@
         <v>9.3040003E7</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -17748,7 +17739,7 @@
         <v>9.3050001E7</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -17756,7 +17747,7 @@
         <v>9.3050002E7</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -17764,7 +17755,7 @@
         <v>9.3060001E7</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -17772,7 +17763,7 @@
         <v>9.3060002E7</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -17780,7 +17771,7 @@
         <v>9.3060003E7</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
@@ -17788,7 +17779,7 @@
         <v>9.3060004E7</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
@@ -17796,7 +17787,7 @@
         <v>9.3060005E7</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
@@ -17804,7 +17795,7 @@
         <v>9.3070001E7</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -17812,7 +17803,7 @@
         <v>9.3070002E7</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -17820,7 +17811,7 @@
         <v>9.3070003E7</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
@@ -17828,7 +17819,7 @@
         <v>9.3080001E7</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
@@ -17836,7 +17827,7 @@
         <v>9.3080002E7</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
@@ -17844,7 +17835,7 @@
         <v>9.3080003E7</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -17852,7 +17843,7 @@
         <v>9.3080004E7</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -17860,7 +17851,7 @@
         <v>9.3090001E7</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -17868,7 +17859,7 @@
         <v>9.3090002E7</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
@@ -17876,7 +17867,7 @@
         <v>9.3090003E7</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -17884,7 +17875,7 @@
         <v>9.3090004E7</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -17892,7 +17883,7 @@
         <v>9.3090005E7</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -17900,7 +17891,7 @@
         <v>9.3090006E7</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
@@ -17908,7 +17899,7 @@
         <v>9.3100001E7</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
@@ -17916,7 +17907,7 @@
         <v>9.3100002E7</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
@@ -17924,7 +17915,7 @@
         <v>9.3100003E7</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
@@ -17932,7 +17923,7 @@
         <v>9.3100004E7</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
@@ -17940,7 +17931,7 @@
         <v>9.3120001E7</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
@@ -17948,7 +17939,7 @@
         <v>9.3120002E7</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
@@ -17956,7 +17947,7 @@
         <v>9.3130001E7</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
@@ -17964,7 +17955,7 @@
         <v>9.3130002E7</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
@@ -17972,7 +17963,7 @@
         <v>9.3140001E7</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
@@ -17980,7 +17971,7 @@
         <v>9.3150001E7</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
@@ -17988,7 +17979,7 @@
         <v>9.3150002E7</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
@@ -17996,7 +17987,7 @@
         <v>9.3150003E7</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -18004,7 +17995,7 @@
         <v>9.3150004E7</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
@@ -18012,7 +18003,7 @@
         <v>9.3150005E7</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
@@ -18020,7 +18011,7 @@
         <v>9.3160001E7</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
@@ -18028,7 +18019,7 @@
         <v>9.3160002E7</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
@@ -18036,7 +18027,7 @@
         <v>9.3170001E7</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
@@ -18044,7 +18035,7 @@
         <v>9.3170002E7</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -18052,7 +18043,7 @@
         <v>9.3170003E7</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
@@ -18060,7 +18051,7 @@
         <v>9.3170004E7</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
@@ -18068,7 +18059,7 @@
         <v>9.3170005E7</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -18076,7 +18067,7 @@
         <v>9.3180001E7</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -18084,7 +18075,7 @@
         <v>9.3190001E7</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -18092,7 +18083,7 @@
         <v>9.3190002E7</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
@@ -18100,7 +18091,7 @@
         <v>9.3190003E7</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
@@ -18108,7 +18099,7 @@
         <v>9.3190004E7</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
@@ -18116,7 +18107,7 @@
         <v>9.3200001E7</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -18124,7 +18115,7 @@
         <v>9.3200002E7</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
@@ -18132,7 +18123,7 @@
         <v>9.3200003E7</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
@@ -18140,7 +18131,7 @@
         <v>9.3200004E7</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
@@ -18148,7 +18139,7 @@
         <v>9.3200005E7</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
@@ -19588,10 +19579,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -19621,10 +19612,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -19654,10 +19645,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -19685,10 +19676,10 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -19716,10 +19707,10 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="36" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -26358,13 +26349,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -26389,13 +26380,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -26420,13 +26411,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>439</v>
-      </c>
       <c r="C3" s="40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -26451,13 +26442,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -26482,13 +26473,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>444</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -26513,13 +26504,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -26544,13 +26535,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -26575,13 +26566,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -26606,13 +26597,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -26637,13 +26628,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -26668,13 +26659,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -26699,13 +26690,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -26730,123 +26721,123 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>463</v>
-      </c>
       <c r="C14" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -28674,19 +28665,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>476</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>479</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>15</v>
@@ -28714,22 +28705,22 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C2" s="48" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -28754,22 +28745,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C3" s="48" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -44859,25 +44850,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>486</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>488</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>489</v>
       </c>
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
@@ -44901,19 +44892,19 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="59"/>
       <c r="F2" s="60"/>
       <c r="G2" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
@@ -44937,21 +44928,21 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
@@ -44975,14 +44966,14 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
@@ -45009,22 +45000,22 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -45049,14 +45040,14 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -45083,10 +45074,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="42"/>
@@ -45115,14 +45106,14 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
@@ -45149,16 +45140,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -45185,10 +45176,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -45217,10 +45208,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -45249,14 +45240,14 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
@@ -45283,10 +45274,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -45315,21 +45306,21 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
@@ -45353,10 +45344,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -45385,17 +45376,17 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -45419,10 +45410,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="42"/>
@@ -45451,10 +45442,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -45483,10 +45474,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -45515,10 +45506,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -45547,21 +45538,21 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="56" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
@@ -45585,10 +45576,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="56" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
@@ -45617,14 +45608,14 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="56" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -45651,21 +45642,21 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
@@ -45689,21 +45680,21 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -45727,17 +45718,17 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
@@ -45761,10 +45752,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="56" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -45793,13 +45784,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="56" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="42"/>
@@ -45827,10 +45818,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="56" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -45859,13 +45850,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="56" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
@@ -45893,17 +45884,17 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -45927,25 +45918,25 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -45969,21 +45960,21 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="56" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -46007,21 +45998,21 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="56" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
@@ -46045,23 +46036,23 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="56" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
@@ -46085,19 +46076,19 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="56" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
@@ -46121,16 +46112,16 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="56" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
@@ -46157,16 +46148,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="56" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
@@ -46193,14 +46184,14 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="56" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
@@ -46227,16 +46218,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="56" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
@@ -46263,10 +46254,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="56" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="42"/>
@@ -46295,16 +46286,16 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="56" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
@@ -46331,10 +46322,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -46363,10 +46354,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="56" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="42"/>
@@ -46395,14 +46386,14 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="56" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
@@ -46429,10 +46420,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="56" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="42"/>
@@ -46461,14 +46452,14 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="56" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -46495,14 +46486,14 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="56" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
@@ -46529,14 +46520,14 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="56" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
@@ -46563,17 +46554,17 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="56" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="61"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
       <c r="G50" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H50" s="42"/>
       <c r="I50" s="42"/>
@@ -46597,10 +46588,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="56" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
@@ -46629,17 +46620,17 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="56" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="42"/>
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
       <c r="G52" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H52" s="42"/>
       <c r="I52" s="42"/>
@@ -46663,13 +46654,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="56" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
@@ -46697,15 +46688,15 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="56" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C54" s="43"/>
       <c r="D54" s="42"/>
       <c r="E54" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -46731,10 +46722,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="56" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
@@ -46763,14 +46754,14 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
@@ -46797,14 +46788,14 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="56" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
@@ -46831,16 +46822,16 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
@@ -46867,16 +46858,16 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="56" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
@@ -46903,16 +46894,16 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="56" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
@@ -46939,16 +46930,16 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="56" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
@@ -46975,18 +46966,18 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="56" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C62" s="58"/>
       <c r="D62" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G62" s="62"/>
       <c r="H62" s="42"/>
@@ -47011,16 +47002,16 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="56" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
@@ -47047,25 +47038,25 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="56" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F64" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G64" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H64" s="42"/>
       <c r="I64" s="42"/>
@@ -47089,14 +47080,14 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
@@ -47123,16 +47114,16 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="56" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D66" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E66" s="42"/>
       <c r="F66" s="42"/>
@@ -47159,10 +47150,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="56" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="42"/>
@@ -47191,14 +47182,14 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="56" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
@@ -47225,13 +47216,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="56" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="42"/>
@@ -47259,10 +47250,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="56" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -47291,17 +47282,17 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="56" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -47327,14 +47318,14 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="56" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
@@ -47361,14 +47352,14 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="56" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C73" s="43"/>
       <c r="D73" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
@@ -47395,14 +47386,14 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="56" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
@@ -47429,14 +47420,14 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="56" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="42"/>
@@ -47463,14 +47454,14 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="56" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C76" s="42"/>
       <c r="D76" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42"/>
@@ -47497,17 +47488,17 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="56" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C77" s="43"/>
       <c r="D77" s="43"/>
       <c r="E77" s="42"/>
       <c r="F77" s="42"/>
       <c r="G77" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
@@ -47531,10 +47522,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="56" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C78" s="43"/>
       <c r="D78" s="42"/>
@@ -47563,16 +47554,16 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="56" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B79" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E79" s="42"/>
       <c r="F79" s="42"/>
@@ -47599,13 +47590,13 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="56" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="42"/>
@@ -47633,19 +47624,19 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="56" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B81" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E81" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -47671,19 +47662,19 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="56" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D82" s="62"/>
       <c r="E82" s="42"/>
       <c r="F82" s="42"/>
       <c r="G82" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="42"/>
@@ -47707,17 +47698,17 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="56" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C83" s="42"/>
       <c r="D83" s="42"/>
       <c r="E83" s="42"/>
       <c r="F83" s="42"/>
       <c r="G83" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="42"/>
@@ -47741,17 +47732,17 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="56" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
       <c r="G84" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
@@ -47775,17 +47766,17 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="56" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C85" s="42"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
       <c r="G85" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H85" s="42"/>
       <c r="I85" s="42"/>
@@ -47809,16 +47800,16 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="56" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B86" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D86" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E86" s="42"/>
       <c r="F86" s="42"/>
@@ -47845,10 +47836,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="56" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C87" s="42"/>
       <c r="D87" s="42"/>
@@ -47877,13 +47868,13 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="56" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D88" s="42"/>
       <c r="E88" s="42"/>
@@ -47911,21 +47902,21 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="56" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B89" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
@@ -47949,10 +47940,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="56" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C90" s="42"/>
       <c r="D90" s="42"/>
@@ -47981,10 +47972,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="56" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B91" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C91" s="43"/>
       <c r="D91" s="43"/>
@@ -48013,10 +48004,10 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="56" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C92" s="43"/>
       <c r="D92" s="42"/>
@@ -48045,10 +48036,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="56" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C93" s="42"/>
       <c r="D93" s="43"/>
@@ -48077,14 +48068,14 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="56" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C94" s="43"/>
       <c r="D94" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="42"/>
@@ -48111,21 +48102,21 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="56" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C95" s="43"/>
       <c r="D95" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="42"/>
@@ -48149,13 +48140,13 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="56" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B96" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="42"/>
@@ -48183,13 +48174,13 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="56" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B97" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D97" s="42"/>
       <c r="E97" s="42"/>
@@ -48217,13 +48208,13 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="56" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D98" s="42"/>
       <c r="E98" s="42"/>
@@ -48251,11 +48242,11 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="56" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B99" s="62"/>
       <c r="C99" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="42"/>
@@ -48283,16 +48274,16 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="56" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B100" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C100" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D100" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E100" s="42"/>
       <c r="F100" s="42"/>
@@ -48319,16 +48310,16 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="56" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B101" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C101" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D101" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
@@ -48355,16 +48346,16 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="56" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B102" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C102" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D102" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E102" s="42"/>
       <c r="F102" s="42"/>
@@ -48391,16 +48382,16 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="56" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B103" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C103" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D103" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E103" s="42"/>
       <c r="F103" s="42"/>
@@ -48427,16 +48418,16 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="56" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B104" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D104" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
@@ -48463,14 +48454,14 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="56" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B105" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C105" s="42"/>
       <c r="D105" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="42"/>
@@ -48497,14 +48488,14 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="56" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B106" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C106" s="42"/>
       <c r="D106" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
@@ -48531,14 +48522,14 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="56" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B107" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C107" s="42"/>
       <c r="D107" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
@@ -48565,14 +48556,14 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="56" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C108" s="42"/>
       <c r="D108" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E108" s="42"/>
       <c r="F108" s="42"/>
@@ -48599,14 +48590,14 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="56" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B109" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C109" s="42"/>
       <c r="D109" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E109" s="42"/>
       <c r="F109" s="42"/>
@@ -48633,14 +48624,14 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="56" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B110" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C110" s="42"/>
       <c r="D110" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E110" s="42"/>
       <c r="F110" s="42"/>
@@ -48667,16 +48658,16 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="56" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E111" s="42"/>
       <c r="F111" s="42"/>
@@ -48703,16 +48694,16 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="56" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D112" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E112" s="42"/>
       <c r="F112" s="42"/>
@@ -48739,14 +48730,14 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="56" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C113" s="43"/>
       <c r="D113" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E113" s="42"/>
       <c r="F113" s="42"/>
@@ -48773,16 +48764,16 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="56" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D114" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E114" s="42"/>
       <c r="F114" s="42"/>
@@ -48809,14 +48800,14 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="56" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C115" s="42"/>
       <c r="D115" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E115" s="42"/>
       <c r="F115" s="42"/>
@@ -48843,21 +48834,21 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="56" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C116" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D116" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
       <c r="G116" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H116" s="42"/>
       <c r="I116" s="42"/>
@@ -48881,21 +48872,21 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="56" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B117" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C117" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D117" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E117" s="42"/>
       <c r="F117" s="42"/>
       <c r="G117" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H117" s="42"/>
       <c r="I117" s="42"/>
@@ -48919,21 +48910,21 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="56" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B118" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E118" s="42"/>
       <c r="F118" s="42"/>
       <c r="G118" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H118" s="42"/>
       <c r="I118" s="42"/>
@@ -48957,10 +48948,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="56" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C119" s="42"/>
       <c r="D119" s="42"/>
@@ -48989,16 +48980,16 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="56" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B120" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C120" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
@@ -49025,16 +49016,16 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="56" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C121" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E121" s="42"/>
       <c r="F121" s="42"/>
@@ -49061,16 +49052,16 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="56" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E122" s="42"/>
       <c r="F122" s="42"/>
@@ -49097,10 +49088,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="56" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B123" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C123" s="58"/>
       <c r="D123" s="42"/>
@@ -49129,23 +49120,23 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="56" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B124" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C124" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E124" s="42"/>
       <c r="F124" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G124" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H124" s="42"/>
       <c r="I124" s="42"/>
@@ -49169,16 +49160,16 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="56" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B125" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C125" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E125" s="42"/>
       <c r="F125" s="42"/>
@@ -49205,13 +49196,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="56" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B126" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C126" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D126" s="42"/>
       <c r="E126" s="42"/>
@@ -49239,10 +49230,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="56" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B127" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C127" s="58"/>
       <c r="D127" s="42"/>
@@ -49271,21 +49262,21 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="56" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B128" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C128" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D128" s="42"/>
       <c r="E128" s="42"/>
       <c r="F128" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G128" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H128" s="42"/>
       <c r="I128" s="42"/>
@@ -49309,14 +49300,14 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="56" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C129" s="43"/>
       <c r="D129" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E129" s="42"/>
       <c r="F129" s="42"/>
@@ -49343,10 +49334,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="56" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C130" s="42"/>
       <c r="D130" s="42"/>
@@ -49375,16 +49366,16 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="56" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C131" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D131" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E131" s="42"/>
       <c r="F131" s="42"/>
@@ -49411,14 +49402,14 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="56" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C132" s="43"/>
       <c r="D132" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E132" s="42"/>
       <c r="F132" s="42"/>
@@ -49445,16 +49436,16 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="56" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B133" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C133" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D133" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E133" s="42"/>
       <c r="F133" s="42"/>
@@ -49481,10 +49472,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="56" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C134" s="42"/>
       <c r="D134" s="42"/>
@@ -49513,17 +49504,17 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="56" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C135" s="42"/>
       <c r="D135" s="42"/>
       <c r="E135" s="42"/>
       <c r="F135" s="42"/>
       <c r="G135" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H135" s="42"/>
       <c r="I135" s="42"/>
@@ -49547,17 +49538,17 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="56" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C136" s="43"/>
       <c r="D136" s="43"/>
       <c r="E136" s="42"/>
       <c r="F136" s="42"/>
       <c r="G136" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H136" s="42"/>
       <c r="I136" s="42"/>
@@ -49581,17 +49572,17 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="56" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C137" s="42"/>
       <c r="D137" s="42"/>
       <c r="E137" s="42"/>
       <c r="F137" s="42"/>
       <c r="G137" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H137" s="42"/>
       <c r="I137" s="42"/>
@@ -49615,17 +49606,17 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="56" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C138" s="42"/>
       <c r="D138" s="42"/>
       <c r="E138" s="42"/>
       <c r="F138" s="42"/>
       <c r="G138" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H138" s="42"/>
       <c r="I138" s="42"/>
@@ -49649,17 +49640,17 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="56" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C139" s="42"/>
       <c r="D139" s="42"/>
       <c r="E139" s="42"/>
       <c r="F139" s="42"/>
       <c r="G139" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H139" s="42"/>
       <c r="I139" s="42"/>
@@ -49683,10 +49674,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="56" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C140" s="42"/>
       <c r="D140" s="42"/>
@@ -49715,10 +49706,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="56" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C141" s="42"/>
       <c r="D141" s="42"/>
@@ -49747,17 +49738,17 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="56" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C142" s="42"/>
       <c r="D142" s="42"/>
       <c r="E142" s="42"/>
       <c r="F142" s="42"/>
       <c r="G142" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H142" s="42"/>
       <c r="I142" s="42"/>
@@ -49781,10 +49772,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="56" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C143" s="42"/>
       <c r="D143" s="42"/>
@@ -49813,10 +49804,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="56" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C144" s="43"/>
       <c r="D144" s="42"/>
@@ -49845,10 +49836,10 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="56" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B145" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C145" s="42"/>
       <c r="D145" s="42"/>
@@ -49877,10 +49868,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="61" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B146" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C146" s="42"/>
       <c r="D146" s="42"/>
@@ -49909,10 +49900,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="61" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B147" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C147" s="42"/>
       <c r="D147" s="42"/>
@@ -49941,10 +49932,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="61" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B148" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C148" s="42"/>
       <c r="D148" s="42"/>
@@ -49973,14 +49964,14 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="61" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B149" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C149" s="42"/>
       <c r="D149" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E149" s="42"/>
       <c r="F149" s="42"/>
@@ -50007,10 +49998,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="61" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C150" s="42"/>
       <c r="D150" s="42"/>
@@ -50039,10 +50030,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="61" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B151" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C151" s="42"/>
       <c r="D151" s="42"/>
@@ -50071,17 +50062,17 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="61" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C152" s="42"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
       <c r="F152" s="42"/>
       <c r="G152" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H152" s="61"/>
       <c r="I152" s="61"/>
@@ -50105,17 +50096,17 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="61" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B153" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C153" s="42"/>
       <c r="D153" s="42"/>
       <c r="E153" s="42"/>
       <c r="F153" s="42"/>
       <c r="G153" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H153" s="61"/>
       <c r="I153" s="61"/>
@@ -50139,21 +50130,21 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="61" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B154" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C154" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D154" s="42"/>
       <c r="E154" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H154" s="61"/>
       <c r="I154" s="61"/>
@@ -50177,19 +50168,19 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="61" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B155" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C155" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D155" s="42"/>
       <c r="E155" s="42"/>
       <c r="F155" s="42"/>
       <c r="G155" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H155" s="61"/>
       <c r="I155" s="61"/>
@@ -50213,17 +50204,17 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="61" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B156" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C156" s="42"/>
       <c r="D156" s="42"/>
       <c r="E156" s="42"/>
       <c r="F156" s="42"/>
       <c r="G156" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H156" s="61"/>
       <c r="I156" s="61"/>
@@ -50247,17 +50238,17 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="61" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B157" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C157" s="42"/>
       <c r="D157" s="42"/>
       <c r="E157" s="42"/>
       <c r="F157" s="42"/>
       <c r="G157" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H157" s="61"/>
       <c r="I157" s="61"/>
@@ -50281,19 +50272,19 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="61" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B158" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C158" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D158" s="42"/>
       <c r="E158" s="42"/>
       <c r="F158" s="42"/>
       <c r="G158" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H158" s="61"/>
       <c r="I158" s="61"/>
@@ -50317,17 +50308,17 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="61" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B159" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C159" s="42"/>
       <c r="D159" s="42"/>
       <c r="E159" s="42"/>
       <c r="F159" s="42"/>
       <c r="G159" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H159" s="61"/>
       <c r="I159" s="61"/>
@@ -50351,19 +50342,19 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="61" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B160" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C160" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D160" s="42"/>
       <c r="E160" s="42"/>
       <c r="F160" s="42"/>
       <c r="G160" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H160" s="61"/>
       <c r="I160" s="61"/>
@@ -50387,17 +50378,17 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="61" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B161" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C161" s="42"/>
       <c r="D161" s="42"/>
       <c r="E161" s="42"/>
       <c r="F161" s="42"/>
       <c r="G161" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H161" s="61"/>
       <c r="I161" s="61"/>
@@ -50421,14 +50412,14 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="61" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C162" s="42"/>
       <c r="D162" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E162" s="42"/>
       <c r="F162" s="42"/>
@@ -50455,21 +50446,21 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="61" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B163" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C163" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D163" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E163" s="42"/>
       <c r="F163" s="42"/>
       <c r="G163" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H163" s="61"/>
       <c r="I163" s="61"/>
@@ -50493,10 +50484,10 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="61" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B164" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C164" s="42"/>
       <c r="D164" s="42"/>
@@ -50525,17 +50516,17 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="61" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B165" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C165" s="42"/>
       <c r="D165" s="42"/>
       <c r="E165" s="42"/>
       <c r="F165" s="42"/>
       <c r="G165" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H165" s="61"/>
       <c r="I165" s="61"/>
@@ -50559,19 +50550,19 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="61" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B166" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C166" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D166" s="42"/>
       <c r="E166" s="42"/>
       <c r="F166" s="42"/>
       <c r="G166" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H166" s="61"/>
       <c r="I166" s="61"/>
@@ -50595,19 +50586,19 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="61" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C167" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D167" s="42"/>
       <c r="E167" s="42"/>
       <c r="F167" s="42"/>
       <c r="G167" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H167" s="61"/>
       <c r="I167" s="61"/>
@@ -50631,13 +50622,13 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="61" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B168" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C168" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D168" s="42"/>
       <c r="E168" s="42"/>
@@ -50665,13 +50656,13 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="61" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C169" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D169" s="42"/>
       <c r="E169" s="42"/>
@@ -50699,15 +50690,15 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="61" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B170" s="62"/>
       <c r="C170" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D170" s="42"/>
       <c r="E170" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
@@ -50733,17 +50724,17 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="61" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C171" s="42"/>
       <c r="D171" s="42"/>
       <c r="E171" s="42"/>
       <c r="F171" s="42"/>
       <c r="G171" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H171" s="61"/>
       <c r="I171" s="61"/>
@@ -50767,21 +50758,21 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="61" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C172" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D172" s="42"/>
       <c r="E172" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F172" s="42"/>
       <c r="G172" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H172" s="61"/>
       <c r="I172" s="61"/>
@@ -50805,10 +50796,10 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="61" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B173" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C173" s="42"/>
       <c r="D173" s="42"/>
@@ -50837,10 +50828,10 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="61" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B174" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C174" s="42"/>
       <c r="D174" s="42"/>
@@ -50869,17 +50860,17 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="61" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B175" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C175" s="42"/>
       <c r="D175" s="42"/>
       <c r="E175" s="42"/>
       <c r="F175" s="42"/>
       <c r="G175" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H175" s="61"/>
       <c r="I175" s="61"/>
@@ -50903,10 +50894,10 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="61" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C176" s="42"/>
       <c r="D176" s="42"/>
@@ -50935,17 +50926,17 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="61" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B177" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C177" s="42"/>
       <c r="D177" s="42"/>
       <c r="E177" s="42"/>
       <c r="F177" s="42"/>
       <c r="G177" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H177" s="61"/>
       <c r="I177" s="61"/>
@@ -50969,17 +50960,17 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="61" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C178" s="42"/>
       <c r="D178" s="42"/>
       <c r="E178" s="42"/>
       <c r="F178" s="42"/>
       <c r="G178" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H178" s="61"/>
       <c r="I178" s="61"/>
@@ -51003,17 +50994,17 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="61" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B179" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C179" s="42"/>
       <c r="D179" s="42"/>
       <c r="E179" s="42"/>
       <c r="F179" s="42"/>
       <c r="G179" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H179" s="61"/>
       <c r="I179" s="61"/>
@@ -51037,17 +51028,17 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="61" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B180" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C180" s="42"/>
       <c r="D180" s="42"/>
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
       <c r="G180" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H180" s="61"/>
       <c r="I180" s="61"/>
@@ -51071,17 +51062,17 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="61" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C181" s="42"/>
       <c r="D181" s="42"/>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
       <c r="G181" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H181" s="61"/>
       <c r="I181" s="61"/>
@@ -51105,10 +51096,10 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="61" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C182" s="42"/>
       <c r="D182" s="42"/>
@@ -51137,10 +51128,10 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="61" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B183" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C183" s="42"/>
       <c r="D183" s="42"/>
@@ -51169,17 +51160,17 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="61" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C184" s="42"/>
       <c r="D184" s="42"/>
       <c r="E184" s="42"/>
       <c r="F184" s="42"/>
       <c r="G184" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H184" s="61"/>
       <c r="I184" s="61"/>
@@ -51203,10 +51194,10 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="61" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B185" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C185" s="42"/>
       <c r="D185" s="42"/>
@@ -51235,16 +51226,16 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="61" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B186" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C186" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D186" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
@@ -51271,14 +51262,14 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="61" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B187" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C187" s="42"/>
       <c r="D187" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
@@ -51305,10 +51296,10 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="61" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B188" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C188" s="42"/>
       <c r="D188" s="42"/>
@@ -51337,16 +51328,16 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="61" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B189" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C189" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D189" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E189" s="42"/>
       <c r="F189" s="42"/>
@@ -51373,21 +51364,21 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="61" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B190" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C190" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D190" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E190" s="42"/>
       <c r="F190" s="42"/>
       <c r="G190" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H190" s="61"/>
       <c r="I190" s="61"/>
@@ -51411,10 +51402,10 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B191" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C191" s="62"/>
       <c r="D191" s="62"/>
@@ -51443,17 +51434,17 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="61" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B192" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C192" s="61"/>
       <c r="D192" s="42"/>
       <c r="E192" s="42"/>
       <c r="F192" s="42"/>
       <c r="G192" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H192" s="61"/>
       <c r="I192" s="61"/>
@@ -51477,17 +51468,17 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="61" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B193" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C193" s="42"/>
       <c r="D193" s="42"/>
       <c r="E193" s="42"/>
       <c r="F193" s="42"/>
       <c r="G193" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H193" s="61"/>
       <c r="I193" s="61"/>
@@ -51511,17 +51502,17 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="61" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B194" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C194" s="42"/>
       <c r="D194" s="42"/>
       <c r="E194" s="42"/>
       <c r="F194" s="42"/>
       <c r="G194" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H194" s="61"/>
       <c r="I194" s="61"/>

--- a/packages/windmill/external-bin/janitor/extra_files-2025-02-19.xlsx
+++ b/packages/windmill/external-bin/janitor/extra_files-2025-02-19.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="686">
   <si>
     <t>name</t>
   </si>
@@ -233,7 +233,7 @@
     <t>Manually verify voter</t>
   </si>
   <si>
-    <t>SBEI|OFOV</t>
+    <t>OFOV</t>
   </si>
   <si>
     <t>OVCS_EVENTS</t>
@@ -1759,9 +1759,6 @@
   </si>
   <si>
     <t>ofov</t>
-  </si>
-  <si>
-    <t>OFOV</t>
   </si>
   <si>
     <t>permissions</t>
@@ -28987,7 +28984,7 @@
         <v>486</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>487</v>
+        <v>34</v>
       </c>
       <c r="C3" s="43" t="b">
         <v>1</v>
@@ -35909,25 +35906,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>439</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="46" t="s">
         <v>486</v>
       </c>
       <c r="E1" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="47" t="s">
         <v>491</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>492</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
@@ -35951,19 +35948,19 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>494</v>
-      </c>
       <c r="C2" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="53"/>
       <c r="F2" s="54"/>
       <c r="G2" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
@@ -35987,21 +35984,21 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
@@ -36025,14 +36022,14 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -36059,22 +36056,22 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -36099,14 +36096,14 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -36133,10 +36130,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="41"/>
@@ -36165,14 +36162,14 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
@@ -36199,16 +36196,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
@@ -36235,10 +36232,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -36267,10 +36264,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -36299,14 +36296,14 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -36333,10 +36330,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -36365,21 +36362,21 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -36403,10 +36400,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -36435,17 +36432,17 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="50" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -36469,10 +36466,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="50" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="41"/>
@@ -36501,10 +36498,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -36533,10 +36530,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -36565,10 +36562,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -36597,21 +36594,21 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
@@ -36635,10 +36632,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -36667,14 +36664,14 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="50" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -36701,21 +36698,21 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
@@ -36739,21 +36736,21 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -36777,17 +36774,17 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -36811,10 +36808,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -36843,13 +36840,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="41"/>
@@ -36877,10 +36874,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="50" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
@@ -36909,13 +36906,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
@@ -36943,17 +36940,17 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
@@ -36977,25 +36974,25 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
@@ -37019,21 +37016,23 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>494</v>
-      </c>
-      <c r="D33" s="41"/>
+        <v>493</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>493</v>
+      </c>
       <c r="E33" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
@@ -37057,21 +37056,21 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
@@ -37095,23 +37094,23 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
@@ -37135,19 +37134,19 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
       <c r="E36" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
@@ -37171,16 +37170,16 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
@@ -37207,16 +37206,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
@@ -37243,14 +37242,14 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
@@ -37277,16 +37276,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
@@ -37313,10 +37312,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="41"/>
@@ -37345,16 +37344,16 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
@@ -37381,10 +37380,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
@@ -37413,10 +37412,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="50" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="41"/>
@@ -37445,14 +37444,14 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
@@ -37479,10 +37478,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="41"/>
@@ -37511,14 +37510,14 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="50" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
@@ -37545,14 +37544,14 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
@@ -37579,14 +37578,14 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
@@ -37613,17 +37612,17 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="55"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
       <c r="G50" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
@@ -37647,10 +37646,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -37679,17 +37678,17 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
@@ -37713,13 +37712,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -37747,15 +37746,15 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="41"/>
       <c r="E54" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
@@ -37781,10 +37780,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="50" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C55" s="41"/>
       <c r="D55" s="41"/>
@@ -37813,14 +37812,14 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
@@ -37847,14 +37846,14 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
@@ -37881,16 +37880,16 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
@@ -37917,16 +37916,16 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="50" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
@@ -37953,16 +37952,16 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
@@ -37989,16 +37988,16 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
@@ -38025,18 +38024,18 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="50" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C62" s="52"/>
       <c r="D62" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G62" s="56"/>
       <c r="H62" s="41"/>
@@ -38061,16 +38060,16 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
@@ -38097,25 +38096,25 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F64" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
@@ -38139,14 +38138,14 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C65" s="41"/>
       <c r="D65" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
@@ -38173,16 +38172,16 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
@@ -38209,10 +38208,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="41"/>
@@ -38241,14 +38240,14 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C68" s="41"/>
       <c r="D68" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
@@ -38275,13 +38274,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
@@ -38309,10 +38308,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -38341,17 +38340,17 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
@@ -38377,14 +38376,14 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="50" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C72" s="42"/>
       <c r="D72" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
@@ -38411,14 +38410,14 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="50" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C73" s="42"/>
       <c r="D73" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
@@ -38445,14 +38444,14 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
@@ -38479,14 +38478,14 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
@@ -38513,14 +38512,14 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C76" s="41"/>
       <c r="D76" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
@@ -38547,17 +38546,17 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
@@ -38581,10 +38580,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="41"/>
@@ -38613,16 +38612,16 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
@@ -38649,13 +38648,13 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -38683,19 +38682,19 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
@@ -38721,19 +38720,19 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D82" s="56"/>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="41"/>
@@ -38757,17 +38756,17 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
       <c r="G83" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="41"/>
@@ -38791,17 +38790,17 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="50" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
       <c r="G84" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
@@ -38825,17 +38824,17 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C85" s="41"/>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
       <c r="F85" s="41"/>
       <c r="G85" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="41"/>
@@ -38859,16 +38858,16 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="41"/>
@@ -38895,10 +38894,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C87" s="41"/>
       <c r="D87" s="41"/>
@@ -38927,13 +38926,13 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="41"/>
@@ -38961,21 +38960,21 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
@@ -38999,10 +38998,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C90" s="41"/>
       <c r="D90" s="41"/>
@@ -39031,10 +39030,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C91" s="42"/>
       <c r="D91" s="42"/>
@@ -39063,10 +39062,10 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C92" s="42"/>
       <c r="D92" s="41"/>
@@ -39095,10 +39094,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="50" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C93" s="41"/>
       <c r="D93" s="42"/>
@@ -39127,14 +39126,14 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="50" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C94" s="42"/>
       <c r="D94" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="41"/>
@@ -39161,21 +39160,21 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C95" s="42"/>
       <c r="D95" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F95" s="41"/>
       <c r="G95" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
@@ -39199,13 +39198,13 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="50" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="41"/>
@@ -39233,13 +39232,13 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
@@ -39267,13 +39266,13 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="41"/>
@@ -39301,11 +39300,11 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B99" s="56"/>
       <c r="C99" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
@@ -39333,16 +39332,16 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E100" s="41"/>
       <c r="F100" s="41"/>
@@ -39369,16 +39368,16 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E101" s="41"/>
       <c r="F101" s="41"/>
@@ -39405,16 +39404,16 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D102" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
@@ -39441,16 +39440,16 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="50" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D103" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
@@ -39477,16 +39476,16 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="50" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D104" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E104" s="41"/>
       <c r="F104" s="41"/>
@@ -39513,14 +39512,14 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="50" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C105" s="41"/>
       <c r="D105" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
@@ -39547,14 +39546,14 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="50" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B106" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E106" s="41"/>
       <c r="F106" s="41"/>
@@ -39581,14 +39580,14 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="50" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E107" s="41"/>
       <c r="F107" s="41"/>
@@ -39615,14 +39614,14 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="50" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B108" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E108" s="41"/>
       <c r="F108" s="41"/>
@@ -39649,14 +39648,14 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="50" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C109" s="41"/>
       <c r="D109" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E109" s="41"/>
       <c r="F109" s="41"/>
@@ -39683,14 +39682,14 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B110" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C110" s="41"/>
       <c r="D110" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
@@ -39717,16 +39716,16 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="50" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D111" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E111" s="41"/>
       <c r="F111" s="41"/>
@@ -39753,16 +39752,16 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="50" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E112" s="41"/>
       <c r="F112" s="41"/>
@@ -39789,14 +39788,14 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B113" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C113" s="42"/>
       <c r="D113" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E113" s="41"/>
       <c r="F113" s="41"/>
@@ -39823,16 +39822,16 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B114" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E114" s="41"/>
       <c r="F114" s="41"/>
@@ -39859,14 +39858,14 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C115" s="41"/>
       <c r="D115" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E115" s="41"/>
       <c r="F115" s="41"/>
@@ -39893,21 +39892,21 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B116" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E116" s="41"/>
       <c r="F116" s="41"/>
       <c r="G116" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H116" s="41"/>
       <c r="I116" s="41"/>
@@ -39931,21 +39930,21 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B117" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="41"/>
       <c r="G117" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H117" s="41"/>
       <c r="I117" s="41"/>
@@ -39969,21 +39968,21 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B118" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E118" s="41"/>
       <c r="F118" s="41"/>
       <c r="G118" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H118" s="41"/>
       <c r="I118" s="41"/>
@@ -40007,10 +40006,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C119" s="41"/>
       <c r="D119" s="41"/>
@@ -40039,16 +40038,16 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B120" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D120" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="41"/>
@@ -40075,16 +40074,16 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D121" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="41"/>
@@ -40111,16 +40110,16 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B122" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C122" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D122" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E122" s="41"/>
       <c r="F122" s="41"/>
@@ -40147,10 +40146,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C123" s="52"/>
       <c r="D123" s="41"/>
@@ -40179,23 +40178,23 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B124" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E124" s="41"/>
       <c r="F124" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G124" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H124" s="41"/>
       <c r="I124" s="41"/>
@@ -40219,16 +40218,16 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D125" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E125" s="41"/>
       <c r="F125" s="41"/>
@@ -40255,13 +40254,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B126" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C126" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="41"/>
@@ -40289,10 +40288,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C127" s="52"/>
       <c r="D127" s="41"/>
@@ -40321,21 +40320,21 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="41"/>
       <c r="F128" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G128" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H128" s="41"/>
       <c r="I128" s="41"/>
@@ -40359,14 +40358,14 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B129" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C129" s="42"/>
       <c r="D129" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E129" s="41"/>
       <c r="F129" s="41"/>
@@ -40393,10 +40392,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B130" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C130" s="41"/>
       <c r="D130" s="41"/>
@@ -40425,16 +40424,16 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C131" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D131" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E131" s="41"/>
       <c r="F131" s="41"/>
@@ -40461,14 +40460,14 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B132" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C132" s="42"/>
       <c r="D132" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E132" s="41"/>
       <c r="F132" s="41"/>
@@ -40495,16 +40494,16 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="50" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D133" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E133" s="41"/>
       <c r="F133" s="41"/>
@@ -40531,10 +40530,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="50" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C134" s="41"/>
       <c r="D134" s="41"/>
@@ -40563,17 +40562,17 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C135" s="41"/>
       <c r="D135" s="41"/>
       <c r="E135" s="41"/>
       <c r="F135" s="41"/>
       <c r="G135" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H135" s="41"/>
       <c r="I135" s="41"/>
@@ -40597,17 +40596,17 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B136" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C136" s="42"/>
       <c r="D136" s="42"/>
       <c r="E136" s="41"/>
       <c r="F136" s="41"/>
       <c r="G136" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H136" s="41"/>
       <c r="I136" s="41"/>
@@ -40631,17 +40630,17 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="50" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C137" s="41"/>
       <c r="D137" s="41"/>
       <c r="E137" s="41"/>
       <c r="F137" s="41"/>
       <c r="G137" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H137" s="41"/>
       <c r="I137" s="41"/>
@@ -40665,17 +40664,17 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="50" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B138" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C138" s="41"/>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
       <c r="F138" s="41"/>
       <c r="G138" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H138" s="41"/>
       <c r="I138" s="41"/>
@@ -40699,17 +40698,17 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B139" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C139" s="41"/>
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
       <c r="F139" s="41"/>
       <c r="G139" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H139" s="41"/>
       <c r="I139" s="41"/>
@@ -40733,10 +40732,10 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C140" s="41"/>
       <c r="D140" s="41"/>
@@ -40765,10 +40764,10 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B141" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C141" s="41"/>
       <c r="D141" s="41"/>
@@ -40797,17 +40796,17 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B142" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C142" s="41"/>
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
       <c r="F142" s="41"/>
       <c r="G142" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H142" s="41"/>
       <c r="I142" s="41"/>
@@ -40831,10 +40830,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C143" s="41"/>
       <c r="D143" s="41"/>
@@ -40863,10 +40862,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="50" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B144" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C144" s="42"/>
       <c r="D144" s="41"/>
@@ -40895,10 +40894,10 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B145" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C145" s="41"/>
       <c r="D145" s="41"/>
@@ -40927,10 +40926,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C146" s="41"/>
       <c r="D146" s="41"/>
@@ -40959,10 +40958,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B147" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C147" s="41"/>
       <c r="D147" s="41"/>
@@ -40991,10 +40990,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C148" s="41"/>
       <c r="D148" s="41"/>
@@ -41023,14 +41022,14 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C149" s="41"/>
       <c r="D149" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E149" s="41"/>
       <c r="F149" s="41"/>
@@ -41057,10 +41056,10 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C150" s="41"/>
       <c r="D150" s="41"/>
@@ -41089,10 +41088,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B151" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C151" s="41"/>
       <c r="D151" s="41"/>
@@ -41121,17 +41120,17 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C152" s="41"/>
       <c r="D152" s="41"/>
       <c r="E152" s="41"/>
       <c r="F152" s="41"/>
       <c r="G152" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H152" s="55"/>
       <c r="I152" s="55"/>
@@ -41155,17 +41154,17 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B153" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C153" s="41"/>
       <c r="D153" s="41"/>
       <c r="E153" s="41"/>
       <c r="F153" s="41"/>
       <c r="G153" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H153" s="55"/>
       <c r="I153" s="55"/>
@@ -41189,21 +41188,21 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B154" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C154" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D154" s="41"/>
       <c r="E154" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F154" s="41"/>
       <c r="G154" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H154" s="55"/>
       <c r="I154" s="55"/>
@@ -41227,19 +41226,19 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B155" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C155" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D155" s="41"/>
       <c r="E155" s="41"/>
       <c r="F155" s="41"/>
       <c r="G155" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H155" s="55"/>
       <c r="I155" s="55"/>
@@ -41263,17 +41262,17 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C156" s="41"/>
       <c r="D156" s="41"/>
       <c r="E156" s="41"/>
       <c r="F156" s="41"/>
       <c r="G156" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H156" s="55"/>
       <c r="I156" s="55"/>
@@ -41297,17 +41296,17 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B157" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C157" s="41"/>
       <c r="D157" s="41"/>
       <c r="E157" s="41"/>
       <c r="F157" s="41"/>
       <c r="G157" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H157" s="55"/>
       <c r="I157" s="55"/>
@@ -41331,19 +41330,19 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C158" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D158" s="41"/>
       <c r="E158" s="41"/>
       <c r="F158" s="41"/>
       <c r="G158" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H158" s="55"/>
       <c r="I158" s="55"/>
@@ -41367,17 +41366,17 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B159" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C159" s="41"/>
       <c r="D159" s="41"/>
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
       <c r="G159" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H159" s="55"/>
       <c r="I159" s="55"/>
@@ -41401,19 +41400,19 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="55" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C160" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="41"/>
       <c r="F160" s="41"/>
       <c r="G160" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H160" s="55"/>
       <c r="I160" s="55"/>
@@ -41437,17 +41436,17 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="55" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B161" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C161" s="41"/>
       <c r="D161" s="41"/>
       <c r="E161" s="41"/>
       <c r="F161" s="41"/>
       <c r="G161" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H161" s="55"/>
       <c r="I161" s="55"/>
@@ -41471,14 +41470,14 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="55" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C162" s="41"/>
       <c r="D162" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E162" s="41"/>
       <c r="F162" s="41"/>
@@ -41505,21 +41504,21 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="55" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B163" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C163" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D163" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E163" s="41"/>
       <c r="F163" s="41"/>
       <c r="G163" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H163" s="55"/>
       <c r="I163" s="55"/>
@@ -41543,10 +41542,10 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B164" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C164" s="41"/>
       <c r="D164" s="41"/>
@@ -41575,17 +41574,17 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B165" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C165" s="41"/>
       <c r="D165" s="41"/>
       <c r="E165" s="41"/>
       <c r="F165" s="41"/>
       <c r="G165" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H165" s="55"/>
       <c r="I165" s="55"/>
@@ -41609,19 +41608,19 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B166" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C166" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="41"/>
       <c r="F166" s="41"/>
       <c r="G166" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H166" s="55"/>
       <c r="I166" s="55"/>
@@ -41645,19 +41644,19 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B167" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C167" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="41"/>
       <c r="F167" s="41"/>
       <c r="G167" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H167" s="55"/>
       <c r="I167" s="55"/>
@@ -41681,13 +41680,13 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B168" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C168" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D168" s="41"/>
       <c r="E168" s="41"/>
@@ -41715,13 +41714,13 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B169" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C169" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D169" s="41"/>
       <c r="E169" s="41"/>
@@ -41749,15 +41748,15 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B170" s="56"/>
       <c r="C170" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D170" s="41"/>
       <c r="E170" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F170" s="41"/>
       <c r="G170" s="41"/>
@@ -41783,17 +41782,17 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="55" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B171" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C171" s="41"/>
       <c r="D171" s="41"/>
       <c r="E171" s="41"/>
       <c r="F171" s="41"/>
       <c r="G171" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H171" s="55"/>
       <c r="I171" s="55"/>
@@ -41817,21 +41816,21 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B172" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C172" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D172" s="41"/>
       <c r="E172" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F172" s="41"/>
       <c r="G172" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H172" s="55"/>
       <c r="I172" s="55"/>
@@ -41855,10 +41854,10 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B173" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C173" s="41"/>
       <c r="D173" s="41"/>
@@ -41887,10 +41886,10 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B174" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C174" s="41"/>
       <c r="D174" s="41"/>
@@ -41919,17 +41918,17 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C175" s="41"/>
       <c r="D175" s="41"/>
       <c r="E175" s="41"/>
       <c r="F175" s="41"/>
       <c r="G175" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H175" s="55"/>
       <c r="I175" s="55"/>
@@ -41953,10 +41952,10 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C176" s="41"/>
       <c r="D176" s="41"/>
@@ -41985,17 +41984,17 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="55" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C177" s="41"/>
       <c r="D177" s="41"/>
       <c r="E177" s="41"/>
       <c r="F177" s="41"/>
       <c r="G177" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
@@ -42019,17 +42018,17 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C178" s="41"/>
       <c r="D178" s="41"/>
       <c r="E178" s="41"/>
       <c r="F178" s="41"/>
       <c r="G178" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H178" s="55"/>
       <c r="I178" s="55"/>
@@ -42053,17 +42052,17 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B179" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C179" s="41"/>
       <c r="D179" s="41"/>
       <c r="E179" s="41"/>
       <c r="F179" s="41"/>
       <c r="G179" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H179" s="55"/>
       <c r="I179" s="55"/>
@@ -42087,17 +42086,17 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C180" s="41"/>
       <c r="D180" s="41"/>
       <c r="E180" s="41"/>
       <c r="F180" s="41"/>
       <c r="G180" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H180" s="55"/>
       <c r="I180" s="55"/>
@@ -42121,17 +42120,17 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="55" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C181" s="41"/>
       <c r="D181" s="41"/>
       <c r="E181" s="41"/>
       <c r="F181" s="41"/>
       <c r="G181" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H181" s="55"/>
       <c r="I181" s="55"/>
@@ -42155,10 +42154,10 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C182" s="41"/>
       <c r="D182" s="41"/>
@@ -42187,10 +42186,10 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C183" s="41"/>
       <c r="D183" s="41"/>
@@ -42219,17 +42218,17 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B184" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C184" s="41"/>
       <c r="D184" s="41"/>
       <c r="E184" s="41"/>
       <c r="F184" s="41"/>
       <c r="G184" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H184" s="55"/>
       <c r="I184" s="55"/>
@@ -42253,10 +42252,10 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="55" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C185" s="41"/>
       <c r="D185" s="41"/>
@@ -42285,16 +42284,16 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B186" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C186" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D186" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E186" s="41"/>
       <c r="F186" s="41"/>
@@ -42321,14 +42320,14 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B187" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C187" s="41"/>
       <c r="D187" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E187" s="41"/>
       <c r="F187" s="41"/>
@@ -42355,10 +42354,10 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B188" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C188" s="41"/>
       <c r="D188" s="41"/>
@@ -42387,16 +42386,16 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B189" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C189" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D189" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E189" s="41"/>
       <c r="F189" s="41"/>
@@ -42423,21 +42422,21 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="55" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B190" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C190" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D190" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E190" s="41"/>
       <c r="F190" s="41"/>
       <c r="G190" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H190" s="55"/>
       <c r="I190" s="55"/>
@@ -42461,10 +42460,10 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="55" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B191" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C191" s="56"/>
       <c r="D191" s="56"/>
@@ -42493,17 +42492,17 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="55" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B192" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C192" s="55"/>
       <c r="D192" s="41"/>
       <c r="E192" s="41"/>
       <c r="F192" s="41"/>
       <c r="G192" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
@@ -42527,17 +42526,17 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B193" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C193" s="41"/>
       <c r="D193" s="41"/>
       <c r="E193" s="41"/>
       <c r="F193" s="41"/>
       <c r="G193" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H193" s="55"/>
       <c r="I193" s="55"/>
@@ -42561,17 +42560,17 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B194" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C194" s="41"/>
       <c r="D194" s="41"/>
       <c r="E194" s="41"/>
       <c r="F194" s="41"/>
       <c r="G194" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H194" s="55"/>
       <c r="I194" s="55"/>
